--- a/seo_extrator/teste.xlsx
+++ b/seo_extrator/teste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente\SEO_extrator\seo_extrator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E355E1-2915-49BB-AD51-54BB21EE4F68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437C454E-5EBB-4E6C-9E65-3812C3259979}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63EA0BAC-E801-458C-B39D-C526084F07E9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="393">
   <si>
     <t>dominio</t>
   </si>
@@ -1197,13 +1197,34 @@
   </si>
   <si>
     <t>deferiasclub@gmail.com, club_deferias@hotmail.com, club_deferias@hotmail.com, deferiasclub@gmail.com</t>
+  </si>
+  <si>
+    <t>Respostas</t>
+  </si>
+  <si>
+    <t>Mínimo 5000 reais para invetimento</t>
+  </si>
+  <si>
+    <t>Entrar contato com  Sergio Nakahara wats  11998724807</t>
+  </si>
+  <si>
+    <t>Resposta automática, se assemelha ao Decolar</t>
+  </si>
+  <si>
+    <t>Link conseguido !!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Encaminhado para o setor responsável</t>
+  </si>
+  <si>
+    <t>Solicitou o link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1215,6 +1236,34 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1241,10 +1290,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1292,12 +1346,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE7DA0C3-A938-421E-B2E7-F6CEAD5191A7}" name="Tabela1" displayName="Tabela1" ref="A1:D146" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:D146" xr:uid="{485F409F-CB7C-42E1-8CA0-D84D9FE6519E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE7DA0C3-A938-421E-B2E7-F6CEAD5191A7}" name="Tabela1" displayName="Tabela1" ref="A1:E146" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:E146" xr:uid="{485F409F-CB7C-42E1-8CA0-D84D9FE6519E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D146">
     <sortCondition ref="A1:A142"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4032BD5A-532C-46BB-A9A7-69CDA3FD4EE5}" uniqueName="dominio" name="dominio">
       <xmlColumnPr mapId="1" xpath="/items/item/dominio" xmlDataType="anyURI"/>
     </tableColumn>
@@ -1310,6 +1364,7 @@
     <tableColumn id="4" xr3:uid="{94377F9B-FEB0-4645-9D50-B14D49EDC160}" uniqueName="contato" name="contato">
       <xmlColumnPr mapId="1" xpath="/items/item/contato" xmlDataType="string"/>
     </tableColumn>
+    <tableColumn id="5" xr3:uid="{EAB20DF6-DF7F-4C3A-AD50-21B6705181BD}" uniqueName="5" name="Respostas"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1612,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,7 +1681,7 @@
     <col min="4" max="4" width="58.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1639,8 +1694,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -1651,7 +1709,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -1662,7 +1720,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -1673,7 +1731,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>179</v>
       </c>
@@ -1684,7 +1742,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -1695,7 +1753,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>382</v>
       </c>
@@ -1706,7 +1764,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -1717,7 +1775,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>163</v>
       </c>
@@ -1728,7 +1786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1742,7 +1800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>133</v>
       </c>
@@ -1753,7 +1811,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -1767,7 +1825,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -1778,7 +1836,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -1789,7 +1847,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -1800,7 +1858,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -1814,7 +1872,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>190</v>
       </c>
@@ -1825,7 +1883,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>161</v>
       </c>
@@ -1836,7 +1894,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>177</v>
       </c>
@@ -1847,7 +1905,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1861,7 +1919,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -1875,7 +1933,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -1886,7 +1944,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -1900,7 +1958,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>183</v>
       </c>
@@ -1911,7 +1969,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>181</v>
       </c>
@@ -1922,7 +1980,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -1933,7 +1991,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1947,7 +2005,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -1958,7 +2016,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>168</v>
       </c>
@@ -1969,7 +2027,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -1983,7 +2041,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>384</v>
       </c>
@@ -1993,11 +2051,15 @@
       <c r="C31" t="s">
         <v>25</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="7" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -2011,7 +2073,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>162</v>
       </c>
@@ -2022,7 +2084,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -2033,7 +2095,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -2044,7 +2106,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>170</v>
       </c>
@@ -2055,18 +2117,21 @@
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>153</v>
       </c>
       <c r="C37" t="s">
         <v>228</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="7" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>154</v>
       </c>
@@ -2077,7 +2142,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -2088,7 +2153,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>15</v>
       </c>
@@ -2102,7 +2167,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>367</v>
       </c>
@@ -2116,7 +2181,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -2124,7 +2189,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -2138,7 +2203,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -2149,18 +2214,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>202</v>
       </c>
       <c r="C45" t="s">
         <v>274</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="7" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>167</v>
       </c>
@@ -2171,7 +2239,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2185,7 +2253,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
@@ -2199,7 +2267,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>369</v>
       </c>
@@ -2212,8 +2280,9 @@
       <c r="D49" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -2221,15 +2290,18 @@
         <v>293</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="7" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -2243,7 +2315,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -2254,7 +2326,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -2268,7 +2340,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>176</v>
       </c>
@@ -2279,7 +2351,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>142</v>
       </c>
@@ -2287,7 +2359,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>212</v>
       </c>
@@ -2298,7 +2370,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -2312,7 +2384,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>205</v>
       </c>
@@ -2323,7 +2395,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>89</v>
       </c>
@@ -2334,7 +2406,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>198</v>
       </c>
@@ -2345,7 +2417,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -2359,7 +2431,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>172</v>
       </c>
@@ -2370,7 +2442,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>187</v>
       </c>
@@ -2775,7 +2847,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>195</v>
       </c>
@@ -2786,7 +2858,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>8</v>
       </c>
@@ -2800,7 +2872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>208</v>
       </c>
@@ -2811,7 +2883,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>380</v>
       </c>
@@ -2825,7 +2897,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>213</v>
       </c>
@@ -2836,7 +2908,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -2850,7 +2922,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>376</v>
       </c>
@@ -2864,7 +2936,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>191</v>
       </c>
@@ -2875,7 +2947,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>155</v>
       </c>
@@ -2886,7 +2958,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>10</v>
       </c>
@@ -2900,7 +2972,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>180</v>
       </c>
@@ -2911,18 +2983,21 @@
         <v>329</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>199</v>
       </c>
       <c r="C108" t="s">
         <v>271</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="7" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>164</v>
       </c>
@@ -2933,7 +3008,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>64</v>
       </c>
@@ -2947,7 +3022,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>204</v>
       </c>
@@ -2958,15 +3033,18 @@
         <v>350</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>144</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="7" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>137</v>
       </c>
@@ -2974,7 +3052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>47</v>
       </c>
@@ -2988,7 +3066,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -3002,7 +3080,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>378</v>
       </c>
@@ -3016,7 +3094,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>100</v>
       </c>
@@ -3030,7 +3108,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>17</v>
       </c>
@@ -3044,7 +3122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>359</v>
       </c>
@@ -3058,7 +3136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>13</v>
       </c>
@@ -3072,7 +3150,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>193</v>
       </c>
@@ -3083,7 +3161,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>6</v>
       </c>
@@ -3097,7 +3175,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>4</v>
       </c>
@@ -3111,7 +3189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>5</v>
       </c>
@@ -3125,7 +3203,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>373</v>
       </c>
@@ -3139,18 +3217,21 @@
         <v>375</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>159</v>
       </c>
       <c r="C126" t="s">
         <v>233</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="7" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>145</v>
       </c>
@@ -3158,7 +3239,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>7</v>
       </c>
@@ -3172,7 +3253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>169</v>
       </c>
@@ -3183,7 +3264,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>67</v>
       </c>
@@ -3197,7 +3278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>101</v>
       </c>
@@ -3211,7 +3292,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>156</v>
       </c>
@@ -3222,7 +3303,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>14</v>
       </c>
@@ -3236,18 +3317,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>209</v>
       </c>
       <c r="C134" t="s">
         <v>281</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="7" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>50</v>
       </c>
@@ -3261,7 +3345,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>44</v>
       </c>
@@ -3275,7 +3359,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>149</v>
       </c>
@@ -3286,7 +3370,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>196</v>
       </c>
@@ -3297,7 +3381,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>203</v>
       </c>
@@ -3308,7 +3392,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>371</v>
       </c>
@@ -3322,7 +3406,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>18</v>
       </c>
@@ -3336,7 +3420,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>192</v>
       </c>
@@ -3347,7 +3431,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>197</v>
       </c>
@@ -3355,7 +3439,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>185</v>
       </c>
@@ -3403,11 +3487,12 @@
     <hyperlink ref="A141" r:id="rId8" xr:uid="{98D1E829-4451-49A1-B26E-A52223A6397F}"/>
     <hyperlink ref="A68" r:id="rId9" xr:uid="{66740F76-612A-488B-8ADE-C4389E97B7FC}"/>
     <hyperlink ref="A122" r:id="rId10" xr:uid="{1FD2B443-43AD-49C9-B49C-0CDCA0714250}"/>
+    <hyperlink ref="A51" r:id="rId11" xr:uid="{690EE8E7-B7F9-49AE-B125-C0CA12CA46C0}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>